--- a/[CGDN]_Audit doanh nghiep_TyVV.xlsx
+++ b/[CGDN]_Audit doanh nghiep_TyVV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215" firstSheet="4" activeTab="11"/>
+    <workbookView windowWidth="22368" windowHeight="9215" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Array-Array List" sheetId="14" r:id="rId9"/>
     <sheet name="Day-5" sheetId="15" r:id="rId10"/>
     <sheet name="day_6" sheetId="16" r:id="rId11"/>
-    <sheet name="day_7No Category Content Trendi" sheetId="17" r:id="rId12"/>
+    <sheet name="day_7" sheetId="17" r:id="rId12"/>
     <sheet name="Classification" sheetId="4" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
@@ -5775,54 +5775,13 @@
   </si>
   <si>
     <r>
-      <t>Mảng 2 chiều</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'- mảng hai chiều là mảng có 2 chỉ số để lưu trữ các giá trị (chẳng hạn giá trị của một bảng có m dòng, n cột).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Đường chéo mảng 2 chiều</t>
+      <t>Mảng 2 chiều</t>
     </r>
     <r>
       <rPr>
@@ -5831,8 +5790,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -5841,15 +5799,8 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>- Trường hợp mảng hai chiều có đường chéo chính và đường chéo phụ chỉ tồn tại khi số hàng bằng số cột (có nghĩa là ma trận vuông). Đặc điểm của các phần tử nằm trên đường chéo chính của ma trận vuông là chỉ số hàng luôn bằng chỉ số cột.</t>
-    </r>
-  </si>
-  <si>
-    <t>bị lỗi compile (vì value là duy nhất không được trùng lặp)</t>
-  </si>
-  <si>
-    <r>
-      <t>Thuộc tính</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -5858,7 +5809,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>: màu sắc, kích thước, trọng lượng, nhà sản xuất, tên máy, kiểu dáng, hệ điều hành</t>
+      <t>'- mảng hai chiều là mảng có 2 chỉ số để lưu trữ các giá trị (chẳng hạn giá trị của một bảng có m dòng, n cột).</t>
     </r>
     <r>
       <rPr>
@@ -5877,7 +5828,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Hành vi</t>
+      <t>Đường chéo mảng 2 chiều</t>
     </r>
     <r>
       <rPr>
@@ -5886,13 +5837,23 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>: lướt web, code, quay video, gập mở</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>- Trường hợp mảng hai chiều có đường chéo chính và đường chéo phụ chỉ tồn tại khi số hàng bằng số cột (có nghĩa là ma trận vuông). Đặc điểm của các phần tử nằm trên đường chéo chính của ma trận vuông là chỉ số hàng luôn bằng chỉ số cột.</t>
+    </r>
+  </si>
+  <si>
+    <t>bị lỗi compile (vì value là duy nhất không được trùng lặp)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -5900,6 +5861,63 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
+      <t>Thuộc tính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: màu sắc, kích thước, trọng lượng, nhà sản xuất, tên máy, kiểu dáng, hệ điều hành</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hành vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: lướt web, code, quay video, gập mở</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Ngoại lệ</t>
     </r>
     <r>
@@ -6284,6 +6302,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
@@ -6643,6 +6667,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Môi trường cần để chạy 1 file Java:</t>
     </r>
     <r>
@@ -6667,6 +6697,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
@@ -6857,6 +6893,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>- một Index là một con trỏ chỉ tới từng giá trị xuất hiện trong bảng/cột được đánh chỉ mục. Index trong Database có ý nghĩa tương tự như các mục trong xuất hiện trong mục lục của một cuốn sách. Thay vì bạn phải lật từng trang sách để tim thông tin nào đó, bạn chỉ cần lật mục lục và tìm thông tin mình cần tìm xem ở mục nào</t>
     </r>
     <r>
@@ -7149,25 +7191,13 @@
   </si>
   <si>
     <r>
-      <t>Select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> class.class_name </t>
-    </r>
-    <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>from</t>
+      <t>Select</t>
     </r>
     <r>
       <rPr>
@@ -7176,7 +7206,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> class </t>
+      <t xml:space="preserve"> class.class_name </t>
     </r>
     <r>
       <rPr>
@@ -7185,7 +7215,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>join</t>
+      <t>from</t>
     </r>
     <r>
       <rPr>
@@ -7194,7 +7224,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> student </t>
+      <t xml:space="preserve"> class </t>
     </r>
     <r>
       <rPr>
@@ -7203,7 +7233,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>on</t>
+      <t>join</t>
     </r>
     <r>
       <rPr>
@@ -7212,17 +7242,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">class.id = student.class_id </t>
+      <t xml:space="preserve"> student </t>
     </r>
     <r>
       <rPr>
@@ -7231,7 +7251,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>having</t>
+      <t>on</t>
     </r>
     <r>
       <rPr>
@@ -7240,7 +7260,17 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">class.id = student.class_id </t>
     </r>
     <r>
       <rPr>
@@ -7249,6 +7279,24 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
+      <t>having</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>max</t>
     </r>
     <r>
@@ -7266,6 +7314,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Thuật toán xử lý </t>
     </r>
     <r>
@@ -7387,8 +7441,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -7546,24 +7600,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7597,6 +7659,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -7605,31 +7681,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7645,14 +7706,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7660,7 +7714,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7728,13 +7782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7746,13 +7800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7776,7 +7836,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7788,79 +7938,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7872,43 +7962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8027,17 +8081,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8057,11 +8105,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8127,7 +8181,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8148,127 +8202,127 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16108,8 +16162,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
